--- a/Finflux Automation Excels/Client/5010-WithoutInterestRecalculation-DisbAllTranche-EARLYREPAY-DISBTOPUP-Verify-OldLoan.xlsx
+++ b/Finflux Automation Excels/Client/5010-WithoutInterestRecalculation-DisbAllTranche-EARLYREPAY-DISBTOPUP-Verify-OldLoan.xlsx
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +144,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -193,13 +185,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -483,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +482,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,11 +513,8 @@
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>388</v>
       </c>
@@ -545,7 +530,7 @@
       <c r="E2" s="4">
         <v>7336.99</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>7335.4</v>
       </c>
       <c r="G2" s="2">
@@ -560,11 +545,8 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>386</v>
       </c>
@@ -577,7 +559,7 @@
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>3000</v>
       </c>
       <c r="F3" s="2">
@@ -592,14 +574,11 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>7335.4</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>385</v>
       </c>
@@ -627,14 +606,11 @@
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>4335.3999999999996</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>384</v>
       </c>
@@ -647,7 +623,7 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>5000</v>
       </c>
       <c r="F5" s="2">
@@ -662,147 +638,9 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>5000</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
